--- a/xlsxdata/MeltedRainbow.xlsx
+++ b/xlsxdata/MeltedRainbow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HalliwellM\Documents\dnd\Dice Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HalliwellM\Documents\dnd\Dice Data\3d-die-heatmap\xlsxdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BD582-AA8A-4A27-ABE4-BB11553091B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB08BD-F5E6-4EB7-9A5B-FEA4B447B504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,28 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -208,10 +186,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7607,7 +7585,7 @@
   <dimension ref="A1:AD110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7624,15 +7602,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -7776,32 +7754,32 @@
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" cm="1">
-        <f t="array" ref="L4">_xlfn.MODE.MULT(B11:B1010)</f>
+      <c r="L4" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,_xlfn.MODE.MULT(B11:B1010))</f>
         <v>18</v>
       </c>
-      <c r="M4" s="2" cm="1">
-        <f t="array" ref="M4">_xlfn.MODE.MULT(C11:C1010)</f>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4:R4" si="2">_xlfn.TEXTJOIN(",",FALSE,_xlfn.MODE.MULT(C11:C1010))</f>
         <v>12</v>
       </c>
-      <c r="N4" s="3" cm="1">
-        <f t="array" ref="N4">_xlfn.MODE.MULT(D11:D1010)</f>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O4" s="2" cm="1">
-        <f t="array" ref="O4">_xlfn.MODE.MULT(E11:E1010)</f>
+      <c r="O4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P4" s="3" cm="1">
-        <f t="array" ref="P4">_xlfn.MODE.MULT(F11:F1010)</f>
+      <c r="P4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="2" cm="1">
-        <f t="array" ref="Q4">_xlfn.MODE.MULT(G11:G1010)</f>
+      <c r="Q4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R4" s="3" cm="1">
-        <f t="array" ref="R4">_xlfn.MODE.MULT(H11:H1010)</f>
+      <c r="R4" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -7814,7 +7792,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:H5" si="2">COUNTIF(C11:C1010,C2)</f>
+        <f t="shared" ref="C5:H5" si="3">COUNTIF(C11:C1010,C2)</f>
         <v>13</v>
       </c>
       <c r="D5" s="3">
@@ -7822,19 +7800,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -7847,7 +7825,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:H6" si="3">COUNTIF(C11:C1010,1)</f>
+        <f t="shared" ref="C6:H6" si="4">COUNTIF(C11:C1010,1)</f>
         <v>8</v>
       </c>
       <c r="D6" s="3">
@@ -7855,19 +7833,19 @@
         <v>7</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -7925,7 +7903,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:H7" si="4">C10/C2</f>
+        <f t="shared" ref="C7:H7" si="5">C10/C2</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="D7" s="3">
@@ -7933,19 +7911,19 @@
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.666666666666668</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K7" s="1">
@@ -8148,27 +8126,27 @@
         <v>100</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:H10" si="5">COUNT(C11:C110)</f>
+        <f t="shared" ref="C10:H10" si="6">COUNT(C11:C110)</f>
         <v>100</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K10" s="1">
@@ -8244,7 +8222,7 @@
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="2">
@@ -8321,7 +8299,7 @@
       <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>9</v>
       </c>
       <c r="E12" s="2">
@@ -8398,7 +8376,7 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>6</v>
       </c>
       <c r="E13" s="2">
@@ -8467,7 +8445,7 @@
       <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>9</v>
       </c>
       <c r="E14" s="2">
@@ -8536,7 +8514,7 @@
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="2">
@@ -8597,7 +8575,7 @@
       <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>4</v>
       </c>
       <c r="E16" s="2">
@@ -8658,7 +8636,7 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>4</v>
       </c>
       <c r="E17" s="2">
@@ -8700,7 +8678,7 @@
       <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>2</v>
       </c>
       <c r="E18" s="2">
@@ -8742,7 +8720,7 @@
       <c r="C19" s="2">
         <v>11</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>4</v>
       </c>
       <c r="E19" s="2">
@@ -8776,7 +8754,7 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>6</v>
       </c>
       <c r="E20" s="2">
@@ -8810,7 +8788,7 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="2">
@@ -8844,7 +8822,7 @@
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>9</v>
       </c>
       <c r="E22" s="2">
@@ -8878,7 +8856,7 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>9</v>
       </c>
       <c r="E23" s="2">
@@ -8912,7 +8890,7 @@
       <c r="C24" s="2">
         <v>12</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>7</v>
       </c>
       <c r="E24" s="2">
@@ -8946,7 +8924,7 @@
       <c r="C25" s="2">
         <v>8</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>10</v>
       </c>
       <c r="E25" s="2">
@@ -8980,7 +8958,7 @@
       <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>8</v>
       </c>
       <c r="E26" s="2">
@@ -9014,7 +8992,7 @@
       <c r="C27" s="2">
         <v>11</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>9</v>
       </c>
       <c r="E27" s="2">
@@ -9037,7 +9015,7 @@
       <c r="C28" s="2">
         <v>12</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>8</v>
       </c>
       <c r="E28" s="2">
@@ -9060,7 +9038,7 @@
       <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>6</v>
       </c>
       <c r="E29" s="2">
@@ -9083,7 +9061,7 @@
       <c r="C30" s="2">
         <v>12</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>7</v>
       </c>
       <c r="E30" s="2">
@@ -9106,7 +9084,7 @@
       <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="2">
@@ -9129,7 +9107,7 @@
       <c r="C32" s="2">
         <v>9</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>6</v>
       </c>
       <c r="E32" s="2">
@@ -9152,7 +9130,7 @@
       <c r="C33" s="2">
         <v>11</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>5</v>
       </c>
       <c r="E33" s="2">
@@ -9175,7 +9153,7 @@
       <c r="C34" s="2">
         <v>5</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>2</v>
       </c>
       <c r="E34" s="2">
@@ -9198,7 +9176,7 @@
       <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>3</v>
       </c>
       <c r="E35" s="2">
@@ -9221,7 +9199,7 @@
       <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>10</v>
       </c>
       <c r="E36" s="2">
@@ -9244,7 +9222,7 @@
       <c r="C37" s="2">
         <v>2</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>2</v>
       </c>
       <c r="E37" s="2">
@@ -9267,7 +9245,7 @@
       <c r="C38" s="2">
         <v>8</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>2</v>
       </c>
       <c r="E38" s="2">
@@ -9290,7 +9268,7 @@
       <c r="C39" s="2">
         <v>4</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>10</v>
       </c>
       <c r="E39" s="2">
@@ -9313,7 +9291,7 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>9</v>
       </c>
       <c r="E40" s="2">
@@ -9339,7 +9317,7 @@
       <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>9</v>
       </c>
       <c r="E41" s="2">
@@ -9362,7 +9340,7 @@
       <c r="C42" s="2">
         <v>2</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>3</v>
       </c>
       <c r="E42" s="2">
@@ -9385,7 +9363,7 @@
       <c r="C43" s="2">
         <v>12</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>2</v>
       </c>
       <c r="E43" s="2">
@@ -9408,7 +9386,7 @@
       <c r="C44" s="2">
         <v>10</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>3</v>
       </c>
       <c r="E44" s="2">
@@ -9431,7 +9409,7 @@
       <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>1</v>
       </c>
       <c r="E45" s="2">
@@ -9454,7 +9432,7 @@
       <c r="C46" s="2">
         <v>12</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>2</v>
       </c>
       <c r="E46" s="2">
@@ -9477,7 +9455,7 @@
       <c r="C47" s="2">
         <v>4</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>6</v>
       </c>
       <c r="E47" s="2">
@@ -9500,7 +9478,7 @@
       <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>10</v>
       </c>
       <c r="E48" s="2">
@@ -9523,7 +9501,7 @@
       <c r="C49" s="2">
         <v>10</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>8</v>
       </c>
       <c r="E49" s="2">
@@ -9546,7 +9524,7 @@
       <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>5</v>
       </c>
       <c r="E50" s="2">
@@ -9569,7 +9547,7 @@
       <c r="C51" s="2">
         <v>2</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>3</v>
       </c>
       <c r="E51" s="2">
@@ -9592,7 +9570,7 @@
       <c r="C52" s="2">
         <v>4</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>5</v>
       </c>
       <c r="E52" s="2">
@@ -9615,7 +9593,7 @@
       <c r="C53" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>10</v>
       </c>
       <c r="E53" s="2">
@@ -9638,7 +9616,7 @@
       <c r="C54" s="2">
         <v>12</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>4</v>
       </c>
       <c r="E54" s="2">
@@ -9661,7 +9639,7 @@
       <c r="C55" s="2">
         <v>9</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>4</v>
       </c>
       <c r="E55" s="2">
@@ -9684,7 +9662,7 @@
       <c r="C56" s="2">
         <v>9</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>5</v>
       </c>
       <c r="E56" s="2">
@@ -9707,7 +9685,7 @@
       <c r="C57" s="2">
         <v>10</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>5</v>
       </c>
       <c r="E57" s="2">
@@ -9730,7 +9708,7 @@
       <c r="C58" s="2">
         <v>12</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>8</v>
       </c>
       <c r="E58" s="2">
@@ -9753,7 +9731,7 @@
       <c r="C59" s="2">
         <v>6</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>8</v>
       </c>
       <c r="E59" s="2">
@@ -9776,7 +9754,7 @@
       <c r="C60" s="2">
         <v>6</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>7</v>
       </c>
       <c r="E60" s="2">
@@ -9799,7 +9777,7 @@
       <c r="C61" s="2">
         <v>10</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>7</v>
       </c>
       <c r="E61" s="2">
@@ -9822,7 +9800,7 @@
       <c r="C62" s="2">
         <v>5</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>6</v>
       </c>
       <c r="E62" s="2">
@@ -9845,7 +9823,7 @@
       <c r="C63" s="2">
         <v>11</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>9</v>
       </c>
       <c r="E63" s="2">
@@ -9868,7 +9846,7 @@
       <c r="C64" s="2">
         <v>7</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>5</v>
       </c>
       <c r="E64" s="2">
@@ -9891,7 +9869,7 @@
       <c r="C65" s="2">
         <v>8</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>8</v>
       </c>
       <c r="E65" s="2">
@@ -9914,7 +9892,7 @@
       <c r="C66" s="2">
         <v>8</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>8</v>
       </c>
       <c r="E66" s="2">
@@ -9937,7 +9915,7 @@
       <c r="C67" s="2">
         <v>10</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>8</v>
       </c>
       <c r="E67" s="2">
@@ -9960,7 +9938,7 @@
       <c r="C68" s="2">
         <v>2</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>1</v>
       </c>
       <c r="E68" s="2">
@@ -9983,7 +9961,7 @@
       <c r="C69" s="2">
         <v>1</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>10</v>
       </c>
       <c r="E69" s="2">
@@ -10006,7 +9984,7 @@
       <c r="C70" s="2">
         <v>9</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>10</v>
       </c>
       <c r="E70" s="2">
@@ -10029,7 +10007,7 @@
       <c r="C71" s="2">
         <v>3</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>7</v>
       </c>
       <c r="E71" s="2">
@@ -10052,7 +10030,7 @@
       <c r="C72" s="2">
         <v>8</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>4</v>
       </c>
       <c r="E72" s="2">
@@ -10075,7 +10053,7 @@
       <c r="C73" s="2">
         <v>6</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>2</v>
       </c>
       <c r="E73" s="2">
@@ -10098,7 +10076,7 @@
       <c r="C74" s="2">
         <v>6</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>4</v>
       </c>
       <c r="E74" s="2">
@@ -10121,7 +10099,7 @@
       <c r="C75" s="2">
         <v>1</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>9</v>
       </c>
       <c r="E75" s="2">
@@ -10144,7 +10122,7 @@
       <c r="C76" s="2">
         <v>8</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>9</v>
       </c>
       <c r="E76" s="2">
@@ -10167,7 +10145,7 @@
       <c r="C77" s="2">
         <v>4</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>9</v>
       </c>
       <c r="E77" s="2">
@@ -10190,7 +10168,7 @@
       <c r="C78" s="2">
         <v>1</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>6</v>
       </c>
       <c r="E78" s="2">
@@ -10213,7 +10191,7 @@
       <c r="C79" s="2">
         <v>3</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>6</v>
       </c>
       <c r="E79" s="2">
@@ -10236,7 +10214,7 @@
       <c r="C80" s="2">
         <v>3</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>4</v>
       </c>
       <c r="E80" s="2">
@@ -10259,7 +10237,7 @@
       <c r="C81" s="2">
         <v>5</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>2</v>
       </c>
       <c r="E81" s="2">
@@ -10282,7 +10260,7 @@
       <c r="C82" s="2">
         <v>11</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>7</v>
       </c>
       <c r="E82" s="2">
@@ -10305,7 +10283,7 @@
       <c r="C83" s="2">
         <v>2</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>5</v>
       </c>
       <c r="E83" s="2">
@@ -10328,7 +10306,7 @@
       <c r="C84" s="2">
         <v>11</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>7</v>
       </c>
       <c r="E84" s="2">
@@ -10351,7 +10329,7 @@
       <c r="C85" s="2">
         <v>6</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>2</v>
       </c>
       <c r="E85" s="2">
@@ -10374,7 +10352,7 @@
       <c r="C86" s="2">
         <v>9</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>7</v>
       </c>
       <c r="E86" s="2">
@@ -10397,7 +10375,7 @@
       <c r="C87" s="2">
         <v>5</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>3</v>
       </c>
       <c r="E87" s="2">
@@ -10420,7 +10398,7 @@
       <c r="C88" s="2">
         <v>9</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>3</v>
       </c>
       <c r="E88" s="2">
@@ -10443,7 +10421,7 @@
       <c r="C89" s="2">
         <v>5</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>5</v>
       </c>
       <c r="E89" s="2">
@@ -10466,7 +10444,7 @@
       <c r="C90" s="2">
         <v>4</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>8</v>
       </c>
       <c r="E90" s="2">
@@ -10489,7 +10467,7 @@
       <c r="C91" s="2">
         <v>11</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>7</v>
       </c>
       <c r="E91" s="2">
@@ -10512,7 +10490,7 @@
       <c r="C92" s="2">
         <v>12</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>5</v>
       </c>
       <c r="E92" s="2">
@@ -10535,7 +10513,7 @@
       <c r="C93" s="2">
         <v>12</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>5</v>
       </c>
       <c r="E93" s="2">
@@ -10558,7 +10536,7 @@
       <c r="C94" s="2">
         <v>12</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>9</v>
       </c>
       <c r="E94" s="2">
@@ -10581,7 +10559,7 @@
       <c r="C95" s="2">
         <v>12</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="7">
         <v>7</v>
       </c>
       <c r="E95" s="2">
@@ -10604,7 +10582,7 @@
       <c r="C96" s="2">
         <v>6</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>7</v>
       </c>
       <c r="E96" s="2">
@@ -10627,7 +10605,7 @@
       <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <v>8</v>
       </c>
       <c r="E97" s="2">
@@ -10650,7 +10628,7 @@
       <c r="C98" s="2">
         <v>4</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>4</v>
       </c>
       <c r="E98" s="2">
@@ -10673,7 +10651,7 @@
       <c r="C99" s="2">
         <v>12</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <v>2</v>
       </c>
       <c r="E99" s="2">
@@ -10696,7 +10674,7 @@
       <c r="C100" s="2">
         <v>9</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <v>7</v>
       </c>
       <c r="E100" s="2">
@@ -10719,7 +10697,7 @@
       <c r="C101" s="2">
         <v>3</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <v>8</v>
       </c>
       <c r="E101" s="2">
@@ -10742,7 +10720,7 @@
       <c r="C102" s="2">
         <v>1</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="7">
         <v>9</v>
       </c>
       <c r="E102" s="2">
@@ -10765,7 +10743,7 @@
       <c r="C103" s="2">
         <v>7</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="7">
         <v>8</v>
       </c>
       <c r="E103" s="2">
@@ -10788,7 +10766,7 @@
       <c r="C104" s="2">
         <v>1</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="7">
         <v>5</v>
       </c>
       <c r="E104" s="2">
@@ -10811,7 +10789,7 @@
       <c r="C105" s="2">
         <v>8</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>1</v>
       </c>
       <c r="E105" s="2">
@@ -10834,7 +10812,7 @@
       <c r="C106" s="2">
         <v>7</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>7</v>
       </c>
       <c r="E106" s="2">
@@ -10857,7 +10835,7 @@
       <c r="C107" s="2">
         <v>2</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="7">
         <v>8</v>
       </c>
       <c r="E107" s="2">
@@ -10880,7 +10858,7 @@
       <c r="C108" s="2">
         <v>2</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="7">
         <v>6</v>
       </c>
       <c r="E108" s="2">
@@ -10903,7 +10881,7 @@
       <c r="C109" s="2">
         <v>6</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="7">
         <v>5</v>
       </c>
       <c r="E109" s="2">
@@ -10926,7 +10904,7 @@
       <c r="C110" s="2">
         <v>7</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="7">
         <v>9</v>
       </c>
       <c r="E110" s="2">
